--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cooky\Desktop\Code\CT2\resources\class_attendance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785481E3-A318-4A7A-8556-656856AA5D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BB6F99-A28E-407D-89D4-190609EBFA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-4995" windowWidth="29040" windowHeight="15720" xr2:uid="{AB209592-22F4-434A-9E3D-B2A30B430BF2}"/>
+    <workbookView xWindow="57480" yWindow="-9015" windowWidth="29040" windowHeight="15720" xr2:uid="{AB209592-22F4-434A-9E3D-B2A30B430BF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -597,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B49198-9B86-4DA5-9E86-B17499CD714B}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -610,7 +610,7 @@
     <col min="4" max="4" width="20.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -620,8 +620,12 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="H1">
+        <f>MAX(B4:B46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -630,7 +634,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -649,7 +653,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="2" cm="1">
         <f t="array" ref="A4:B46">[1]output!$A$2:$B$44</f>
         <v>0</v>
@@ -666,7 +670,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -676,13 +680,13 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4" t="e">
-        <f t="shared" ref="E5:E46" si="0">B5/MAX(B5:B47)</f>
+        <f>B5/MAX(B4:B46)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="3">
         <v>0</v>
       </c>
@@ -692,13 +696,13 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f>B6/MAX(B4:B46)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="3">
         <v>0</v>
       </c>
@@ -708,13 +712,13 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f>B7/MAX(B4:B46)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8" s="3">
         <v>0</v>
       </c>
@@ -724,13 +728,13 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f>B8/MAX(B4:B46)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="3">
         <v>0</v>
       </c>
@@ -740,13 +744,13 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f>B9/MAX(B4:B46)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="3">
         <v>0</v>
       </c>
@@ -756,13 +760,13 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f>B10/MAX(B4:B46)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="3">
         <v>0</v>
       </c>
@@ -772,13 +776,13 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f>B11/H1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="3">
         <v>0</v>
       </c>
@@ -788,13 +792,13 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f>B12/H1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="3">
         <v>0</v>
       </c>
@@ -804,13 +808,13 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f>B13/H1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="3">
         <v>0</v>
       </c>
@@ -820,13 +824,13 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f>B14/H1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="3">
         <v>0</v>
       </c>
@@ -836,13 +840,13 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f>B15/H1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="3">
         <v>0</v>
       </c>
@@ -852,7 +856,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f>B16/H1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F16" s="3"/>
@@ -868,7 +872,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f>B17/H1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F17" s="3"/>
@@ -884,7 +888,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f>B18/H1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F18" s="3"/>
@@ -900,7 +904,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f>B19/H1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F19" s="3"/>
@@ -916,7 +920,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f>B20/H1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="3"/>
@@ -932,7 +936,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f>B21/H1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F21" s="3"/>
@@ -948,7 +952,7 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f>B22/H1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="3"/>
@@ -964,7 +968,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f>B23/H1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F23" s="3"/>
@@ -980,7 +984,7 @@
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f>B24/H1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F24" s="3"/>
@@ -996,7 +1000,7 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f>B25/H1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F25" s="3"/>
@@ -1012,7 +1016,7 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f>B26/H1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F26" s="3"/>
@@ -1028,7 +1032,7 @@
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f>B27/H1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F27" s="3"/>
@@ -1044,7 +1048,7 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f>B28/H1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F28" s="3"/>
@@ -1060,7 +1064,7 @@
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f>B29/H1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F29" s="3"/>
@@ -1076,7 +1080,7 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f>B30/H1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F30" s="3"/>
@@ -1092,7 +1096,7 @@
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f>B31/H1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F31" s="3"/>
@@ -1108,7 +1112,7 @@
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f>B32/H1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F32" s="3"/>
@@ -1124,7 +1128,7 @@
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f>B33/H1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F33" s="3"/>
@@ -1140,7 +1144,7 @@
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f>B34/H1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F34" s="3"/>
@@ -1156,7 +1160,7 @@
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f>B35/H1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F35" s="3"/>
@@ -1172,7 +1176,7 @@
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f>B36/H1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F36" s="3"/>
@@ -1188,7 +1192,7 @@
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f>B37/H1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F37" s="3"/>
@@ -1204,7 +1208,7 @@
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f>B38/H1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F38" s="3"/>
@@ -1220,7 +1224,7 @@
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f>B39/H1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F39" s="3"/>
@@ -1236,7 +1240,7 @@
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f>B40/H1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F40" s="3"/>
@@ -1252,7 +1256,7 @@
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f>B41/H1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F41" s="3"/>
@@ -1268,7 +1272,7 @@
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f>B42/H1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F42" s="3"/>
@@ -1284,7 +1288,7 @@
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f>B43/H1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F43" s="3"/>
@@ -1300,7 +1304,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f>B44/H1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F44" s="3"/>
@@ -1316,7 +1320,7 @@
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f>B45/H1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F45" s="3"/>
@@ -1332,7 +1336,7 @@
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f>B46/H1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F46" s="3"/>
